--- a/StructureDefinition-SmokingStatusExtension.xlsx
+++ b/StructureDefinition-SmokingStatusExtension.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-21T18:47:54-03:00</t>
+    <t>2023-11-21T19:08:35-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
